--- a/Code/Results/Cases/Case_4_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.914570163211323</v>
+        <v>0.5379848230219011</v>
       </c>
       <c r="C2">
-        <v>0.1151874867804281</v>
+        <v>0.1273717529594833</v>
       </c>
       <c r="D2">
-        <v>0.2844592009380449</v>
+        <v>0.5417168702928024</v>
       </c>
       <c r="E2">
-        <v>0.07449170159254948</v>
+        <v>0.1881856917421061</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5689163012372092</v>
+        <v>1.212603365162586</v>
       </c>
       <c r="H2">
-        <v>0.4735120087385738</v>
+        <v>1.193287055998134</v>
       </c>
       <c r="I2">
-        <v>0.5309113902280522</v>
+        <v>1.260195458101045</v>
       </c>
       <c r="J2">
-        <v>0.03549150364942388</v>
+        <v>0.08226617264745517</v>
       </c>
       <c r="K2">
-        <v>0.8151508772438376</v>
+        <v>0.3010386552861348</v>
       </c>
       <c r="L2">
-        <v>0.2079776493352981</v>
+        <v>0.3885854474074364</v>
       </c>
       <c r="M2">
-        <v>0.2130805898644184</v>
+        <v>0.2114875877243172</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.142433554032721</v>
+        <v>4.90203942129591</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7958279612257684</v>
+        <v>0.5040590540928918</v>
       </c>
       <c r="C3">
-        <v>0.111346121966875</v>
+        <v>0.1259911793392021</v>
       </c>
       <c r="D3">
-        <v>0.2691191153575261</v>
+        <v>0.5405622590380972</v>
       </c>
       <c r="E3">
-        <v>0.07397751588876744</v>
+        <v>0.1889254359117807</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5689461150424862</v>
+        <v>1.220495209251737</v>
       </c>
       <c r="H3">
-        <v>0.479830931617208</v>
+        <v>1.200996567041564</v>
       </c>
       <c r="I3">
-        <v>0.5413069557009536</v>
+        <v>1.270015094823027</v>
       </c>
       <c r="J3">
-        <v>0.03583399354050298</v>
+        <v>0.08245401290084065</v>
       </c>
       <c r="K3">
-        <v>0.7108532847300637</v>
+        <v>0.2692841290411252</v>
       </c>
       <c r="L3">
-        <v>0.1939071687000506</v>
+        <v>0.3866711358807962</v>
       </c>
       <c r="M3">
-        <v>0.1878306024789005</v>
+        <v>0.2050904158160982</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.155340516194613</v>
+        <v>4.934636223025649</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7230349740679287</v>
+        <v>0.4833496086611433</v>
       </c>
       <c r="C4">
-        <v>0.1089921612298639</v>
+        <v>0.1251394714933625</v>
       </c>
       <c r="D4">
-        <v>0.2600082749068946</v>
+        <v>0.5400669972761278</v>
       </c>
       <c r="E4">
-        <v>0.07373821282500082</v>
+        <v>0.1894361909377675</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5699686027709419</v>
+        <v>1.225904606723255</v>
       </c>
       <c r="H4">
-        <v>0.4843227347789423</v>
+        <v>1.206129010552296</v>
       </c>
       <c r="I4">
-        <v>0.5484951121575996</v>
+        <v>1.276528347608025</v>
       </c>
       <c r="J4">
-        <v>0.03605381180288303</v>
+        <v>0.08257621863936748</v>
       </c>
       <c r="K4">
-        <v>0.6468016536973522</v>
+        <v>0.2497874805660558</v>
       </c>
       <c r="L4">
-        <v>0.1854519393509833</v>
+        <v>0.3856334247678461</v>
       </c>
       <c r="M4">
-        <v>0.1724101534650053</v>
+        <v>0.2012324949127802</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.166665457431975</v>
+        <v>4.956671164909594</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6933919928822831</v>
+        <v>0.4749414845359752</v>
       </c>
       <c r="C5">
-        <v>0.1080338221769139</v>
+        <v>0.124791405242739</v>
       </c>
       <c r="D5">
-        <v>0.2563699991627431</v>
+        <v>0.5399190520322747</v>
       </c>
       <c r="E5">
-        <v>0.07365949443426345</v>
+        <v>0.1896585794683716</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5706292393330159</v>
+        <v>1.228250839044343</v>
       </c>
       <c r="H5">
-        <v>0.4863033589744319</v>
+        <v>1.208320929851006</v>
       </c>
       <c r="I5">
-        <v>0.5516215873609731</v>
+        <v>1.279304353316842</v>
       </c>
       <c r="J5">
-        <v>0.03614578741154117</v>
+        <v>0.08262775090430186</v>
       </c>
       <c r="K5">
-        <v>0.6206901403109697</v>
+        <v>0.2418431761468156</v>
       </c>
       <c r="L5">
-        <v>0.1820505892398216</v>
+        <v>0.3852452942892768</v>
       </c>
       <c r="M5">
-        <v>0.1661449622032833</v>
+        <v>0.1996781130173986</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.172109537004914</v>
+        <v>4.966159090750693</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6884708204298136</v>
+        <v>0.4735472231643882</v>
       </c>
       <c r="C6">
-        <v>0.1078747392176282</v>
+        <v>0.1247335501500899</v>
       </c>
       <c r="D6">
-        <v>0.255770278807347</v>
+        <v>0.5398977442780506</v>
       </c>
       <c r="E6">
-        <v>0.07364754697416842</v>
+        <v>0.1896963686228528</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5707534295338377</v>
+        <v>1.228648999815384</v>
       </c>
       <c r="H6">
-        <v>0.4866412052810318</v>
+        <v>1.208690964602532</v>
       </c>
       <c r="I6">
-        <v>0.5521525001575078</v>
+        <v>1.2797726666759</v>
       </c>
       <c r="J6">
-        <v>0.03616120477980456</v>
+        <v>0.08263641256900289</v>
       </c>
       <c r="K6">
-        <v>0.6163535505941837</v>
+        <v>0.2405240911637918</v>
       </c>
       <c r="L6">
-        <v>0.1814884100563177</v>
+        <v>0.3851829476781887</v>
       </c>
       <c r="M6">
-        <v>0.1651057050108022</v>
+        <v>0.1994210859306911</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.173062860716783</v>
+        <v>4.967765280035266</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.722635124962693</v>
+        <v>0.4832360867481498</v>
       </c>
       <c r="C7">
-        <v>0.1089792333320716</v>
+        <v>0.1251347813192893</v>
       </c>
       <c r="D7">
-        <v>0.2599589101972839</v>
+        <v>0.5400647836887202</v>
       </c>
       <c r="E7">
-        <v>0.0737370756167941</v>
+        <v>0.1894391324000093</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5699765355636117</v>
+        <v>1.225935674327566</v>
       </c>
       <c r="H7">
-        <v>0.4843488428774805</v>
+        <v>1.206158164823464</v>
       </c>
       <c r="I7">
-        <v>0.548536485025398</v>
+        <v>1.276565292476114</v>
       </c>
       <c r="J7">
-        <v>0.03605504250631775</v>
+        <v>0.08257690660070871</v>
       </c>
       <c r="K7">
-        <v>0.6464495537222916</v>
+        <v>0.2496803371833494</v>
       </c>
       <c r="L7">
-        <v>0.185405891154133</v>
+        <v>0.3856280494578144</v>
       </c>
       <c r="M7">
-        <v>0.1723255856663464</v>
+        <v>0.2012114598870447</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.166735554679789</v>
+        <v>4.956797062844259</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8735988190858848</v>
+        <v>0.5262624818965094</v>
       </c>
       <c r="C8">
-        <v>0.1138618608970745</v>
+        <v>0.1268965821663031</v>
       </c>
       <c r="D8">
-        <v>0.2791041605012197</v>
+        <v>0.5412744994476952</v>
       </c>
       <c r="E8">
-        <v>0.07429829663524501</v>
+        <v>0.1884290378475164</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5687129027573405</v>
+        <v>1.215207517429505</v>
       </c>
       <c r="H8">
-        <v>0.475561480958369</v>
+        <v>1.195862609583948</v>
       </c>
       <c r="I8">
-        <v>0.5343254319369279</v>
+        <v>1.263480888606829</v>
       </c>
       <c r="J8">
-        <v>0.03560761776356891</v>
+        <v>0.08232951667618238</v>
       </c>
       <c r="K8">
-        <v>0.7791874069336302</v>
+        <v>0.2900898552504998</v>
       </c>
       <c r="L8">
-        <v>0.2030866566004761</v>
+        <v>0.3878968892193626</v>
       </c>
       <c r="M8">
-        <v>0.2043558068655358</v>
+        <v>0.2092674132863728</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.146162265640328</v>
+        <v>4.912859750051226</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.170959798772827</v>
+        <v>0.6115722811189244</v>
       </c>
       <c r="C9">
-        <v>0.1234862768913061</v>
+        <v>0.1303185558893176</v>
       </c>
       <c r="D9">
-        <v>0.3192355619836036</v>
+        <v>0.5453362859563669</v>
       </c>
       <c r="E9">
-        <v>0.07602482558158741</v>
+        <v>0.1868955730297515</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5746073522102506</v>
+        <v>1.198639185081745</v>
       </c>
       <c r="H9">
-        <v>0.4633603856081976</v>
+        <v>1.178831333865602</v>
       </c>
       <c r="I9">
-        <v>0.5130938757293073</v>
+        <v>1.241657613628167</v>
       </c>
       <c r="J9">
-        <v>0.03480572862645648</v>
+        <v>0.08189869414786877</v>
       </c>
       <c r="K9">
-        <v>1.03972592562414</v>
+        <v>0.3693186518311222</v>
       </c>
       <c r="L9">
-        <v>0.2393194209848843</v>
+        <v>0.3934336587277301</v>
       </c>
       <c r="M9">
-        <v>0.2679318631917695</v>
+        <v>0.2256142750102157</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.134021386224191</v>
+        <v>4.842709798170034</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.390858166408577</v>
+        <v>0.6747912914209735</v>
       </c>
       <c r="C10">
-        <v>0.130607254364044</v>
+        <v>0.1328115978516564</v>
       </c>
       <c r="D10">
-        <v>0.3505099975803603</v>
+        <v>0.5493434936679336</v>
       </c>
       <c r="E10">
-        <v>0.07770386522824602</v>
+        <v>0.1860398646108745</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5846345160994701</v>
+        <v>1.189186718437355</v>
       </c>
       <c r="H10">
-        <v>0.4577196500458598</v>
+        <v>1.168236033479559</v>
       </c>
       <c r="I10">
-        <v>0.5019008613482114</v>
+        <v>1.227955610937673</v>
       </c>
       <c r="J10">
-        <v>0.03426248524510189</v>
+        <v>0.08161498452127258</v>
       </c>
       <c r="K10">
-        <v>1.231808616598357</v>
+        <v>0.4274980259327492</v>
       </c>
       <c r="L10">
-        <v>0.2670404060510947</v>
+        <v>0.3981587904961401</v>
       </c>
       <c r="M10">
-        <v>0.3152665826218026</v>
+        <v>0.2379524026920876</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.144088981730334</v>
+        <v>4.800905981729386</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.491354045909787</v>
+        <v>0.7036633510988395</v>
       </c>
       <c r="C11">
-        <v>0.1338624064444645</v>
+        <v>0.133940969903307</v>
       </c>
       <c r="D11">
-        <v>0.3651761413087797</v>
+        <v>0.5513871929172041</v>
       </c>
       <c r="E11">
-        <v>0.07856363839678693</v>
+        <v>0.1857090395349132</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5905724707151734</v>
+        <v>1.185476332183399</v>
       </c>
       <c r="H11">
-        <v>0.4559356138354076</v>
+        <v>1.163830707965559</v>
       </c>
       <c r="I11">
-        <v>0.4978501442157288</v>
+        <v>1.222227131573618</v>
       </c>
       <c r="J11">
-        <v>0.03402529673172783</v>
+        <v>0.08149298143969474</v>
       </c>
       <c r="K11">
-        <v>1.319460651313506</v>
+        <v>0.4539546286092389</v>
       </c>
       <c r="L11">
-        <v>0.2799257110230542</v>
+        <v>0.4004499271870969</v>
       </c>
       <c r="M11">
-        <v>0.3369740245776569</v>
+        <v>0.2436352440274305</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.153214247013494</v>
+        <v>4.783997047500321</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.529488594174694</v>
+        <v>0.7146121469529874</v>
       </c>
       <c r="C12">
-        <v>0.1350977368861379</v>
+        <v>0.1343679323525251</v>
       </c>
       <c r="D12">
-        <v>0.3707973458999874</v>
+        <v>0.5521927029967486</v>
       </c>
       <c r="E12">
-        <v>0.07890360793757267</v>
+        <v>0.1855921373656315</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5930313469934276</v>
+        <v>1.184156009194851</v>
       </c>
       <c r="H12">
-        <v>0.4553778828858697</v>
+        <v>1.162222007235457</v>
       </c>
       <c r="I12">
-        <v>0.49647348366587</v>
+        <v>1.220130368884778</v>
       </c>
       <c r="J12">
-        <v>0.03393690806125971</v>
+        <v>0.08144779225882814</v>
       </c>
       <c r="K12">
-        <v>1.352702110630105</v>
+        <v>0.463971212493135</v>
       </c>
       <c r="L12">
-        <v>0.2848476470235113</v>
+        <v>0.401337776725299</v>
       </c>
       <c r="M12">
-        <v>0.3452224542708962</v>
+        <v>0.2457971361312161</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.157360938713822</v>
+        <v>4.777896751526498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.521271920028937</v>
+        <v>0.7122534469266952</v>
       </c>
       <c r="C13">
-        <v>0.1348315605946055</v>
+        <v>0.1342760101828446</v>
       </c>
       <c r="D13">
-        <v>0.3695836477242267</v>
+        <v>0.5520178186390723</v>
       </c>
       <c r="E13">
-        <v>0.07882973952159844</v>
+        <v>0.1856169423699185</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5924922256465379</v>
+        <v>1.184436597435464</v>
       </c>
       <c r="H13">
-        <v>0.4554926693582502</v>
+        <v>1.162565825144654</v>
       </c>
       <c r="I13">
-        <v>0.4967628526748307</v>
+        <v>1.220578721541514</v>
       </c>
       <c r="J13">
-        <v>0.03395588054984788</v>
+        <v>0.08145747967095129</v>
       </c>
       <c r="K13">
-        <v>1.345540592159438</v>
+        <v>0.4618140584201456</v>
       </c>
       <c r="L13">
-        <v>0.2837856773806209</v>
+        <v>0.4011456639678244</v>
       </c>
       <c r="M13">
-        <v>0.3434446961088753</v>
+        <v>0.2453310952831274</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.156436512348535</v>
+        <v>4.779197100123497</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.494489742225426</v>
+        <v>0.7045638072153224</v>
       </c>
       <c r="C14">
-        <v>0.1339639817737677</v>
+        <v>0.1339761106674331</v>
       </c>
       <c r="D14">
-        <v>0.3656372237940815</v>
+        <v>0.5514528301268626</v>
       </c>
       <c r="E14">
-        <v>0.07859131594126723</v>
+        <v>0.1856992542629357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5907704756277212</v>
+        <v>1.185366010864271</v>
       </c>
       <c r="H14">
-        <v>0.4558873350267589</v>
+        <v>1.163697167330128</v>
       </c>
       <c r="I14">
-        <v>0.4977336888727812</v>
+        <v>1.222053177315779</v>
       </c>
       <c r="J14">
-        <v>0.03401799628783309</v>
+        <v>0.08148924346563469</v>
       </c>
       <c r="K14">
-        <v>1.322194391630916</v>
+        <v>0.4547787416157405</v>
       </c>
       <c r="L14">
-        <v>0.2803297708770884</v>
+        <v>0.4005225660533824</v>
       </c>
       <c r="M14">
-        <v>0.3376520418521096</v>
+        <v>0.2438129062630949</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.153541322726056</v>
+        <v>4.783489106930347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.478095546707578</v>
+        <v>0.6998556871809569</v>
       </c>
       <c r="C15">
-        <v>0.1334329256476181</v>
+        <v>0.1337923207913647</v>
       </c>
       <c r="D15">
-        <v>0.3632288415525124</v>
+        <v>0.5511108700094383</v>
       </c>
       <c r="E15">
-        <v>0.07844716705315946</v>
+        <v>0.1857507623518728</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5897436215392702</v>
+        <v>1.185946334585665</v>
       </c>
       <c r="H15">
-        <v>0.4561445921709009</v>
+        <v>1.164397892590145</v>
       </c>
       <c r="I15">
-        <v>0.4983490660318211</v>
+        <v>1.222965761862319</v>
       </c>
       <c r="J15">
-        <v>0.03405623016091663</v>
+        <v>0.08150883121180019</v>
       </c>
       <c r="K15">
-        <v>1.307900939762732</v>
+        <v>0.4504691344413345</v>
       </c>
       <c r="L15">
-        <v>0.2782185627152529</v>
+        <v>0.4001435335298282</v>
       </c>
       <c r="M15">
-        <v>0.3341076563984799</v>
+        <v>0.242884259044331</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.151859097958749</v>
+        <v>4.786157501602077</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.38430087850287</v>
+        <v>0.6729066537130279</v>
       </c>
       <c r="C16">
-        <v>0.130394874036007</v>
+        <v>0.1327376933584503</v>
       </c>
       <c r="D16">
-        <v>0.349560730272529</v>
+        <v>0.5492143637649605</v>
       </c>
       <c r="E16">
-        <v>0.0776496579810928</v>
+        <v>0.1860626582545173</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5842751951361009</v>
+        <v>1.189441059606651</v>
       </c>
       <c r="H16">
-        <v>0.4578524299024167</v>
+        <v>1.168532263978136</v>
       </c>
       <c r="I16">
-        <v>0.5021871691584572</v>
+        <v>1.228340128389842</v>
       </c>
       <c r="J16">
-        <v>0.03427818605480848</v>
+        <v>0.08162309937380563</v>
       </c>
       <c r="K16">
-        <v>1.226086702955286</v>
+        <v>0.4257687830954353</v>
       </c>
       <c r="L16">
-        <v>0.2662041064836984</v>
+        <v>0.3980118991470505</v>
       </c>
       <c r="M16">
-        <v>0.3138517314168467</v>
+        <v>0.2375824133323974</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.14358724438469</v>
+        <v>4.802053405103663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.326888004024227</v>
+        <v>0.6564028190375097</v>
       </c>
       <c r="C17">
-        <v>0.128535448576649</v>
+        <v>0.1320894842526528</v>
       </c>
       <c r="D17">
-        <v>0.3412912603378686</v>
+        <v>0.5481073675228885</v>
       </c>
       <c r="E17">
-        <v>0.07718540232419002</v>
+        <v>0.1862689433139604</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5812816101686167</v>
+        <v>1.191735923649944</v>
       </c>
       <c r="H17">
-        <v>0.4591041477251565</v>
+        <v>1.171174660591333</v>
       </c>
       <c r="I17">
-        <v>0.504813589403895</v>
+        <v>1.231766321146441</v>
       </c>
       <c r="J17">
-        <v>0.03441689393414293</v>
+        <v>0.08169500389373674</v>
       </c>
       <c r="K17">
-        <v>1.17597327463065</v>
+        <v>0.4106130653776177</v>
       </c>
       <c r="L17">
-        <v>0.2589061224478826</v>
+        <v>0.3967404027754355</v>
       </c>
       <c r="M17">
-        <v>0.3014723030830311</v>
+        <v>0.2343477553383622</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.139702894768021</v>
+        <v>4.81234464178317</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.293908428232783</v>
+        <v>0.6469209688448245</v>
       </c>
       <c r="C18">
-        <v>0.127467415702327</v>
+        <v>0.1317162083484149</v>
       </c>
       <c r="D18">
-        <v>0.3365759519308398</v>
+        <v>0.547491444030868</v>
       </c>
       <c r="E18">
-        <v>0.07692737042354914</v>
+        <v>0.1863930955326722</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5796885622303876</v>
+        <v>1.193111367324619</v>
       </c>
       <c r="H18">
-        <v>0.4598973617842432</v>
+        <v>1.172733521182479</v>
       </c>
       <c r="I18">
-        <v>0.5064217453978799</v>
+        <v>1.23378447938666</v>
       </c>
       <c r="J18">
-        <v>0.03449761015314579</v>
+        <v>0.08173702603749256</v>
       </c>
       <c r="K18">
-        <v>1.147174359022586</v>
+        <v>0.4018950398708512</v>
       </c>
       <c r="L18">
-        <v>0.2547341968894017</v>
+        <v>0.3960224118815603</v>
       </c>
       <c r="M18">
-        <v>0.2943682186290175</v>
+        <v>0.2324938798145624</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.137894178543547</v>
+        <v>4.818462309074732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.282749097099583</v>
+        <v>0.6437124407247836</v>
       </c>
       <c r="C19">
-        <v>0.1271060369648183</v>
+        <v>0.1315897482440676</v>
       </c>
       <c r="D19">
-        <v>0.3349863571248051</v>
+        <v>0.5472864783000375</v>
       </c>
       <c r="E19">
-        <v>0.07684153280183459</v>
+        <v>0.1864360773058653</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.579170938158768</v>
+        <v>1.193586602748965</v>
       </c>
       <c r="H19">
-        <v>0.460178353750166</v>
+        <v>1.173268030309515</v>
       </c>
       <c r="I19">
-        <v>0.506982763787807</v>
+        <v>1.234475954095956</v>
       </c>
       <c r="J19">
-        <v>0.03452509987016672</v>
+        <v>0.08175136828058882</v>
       </c>
       <c r="K19">
-        <v>1.137427532329156</v>
+        <v>0.3989431370471266</v>
       </c>
       <c r="L19">
-        <v>0.2533259765047262</v>
+        <v>0.3957816074533724</v>
       </c>
       <c r="M19">
-        <v>0.2919655926856137</v>
+        <v>0.2318673304807533</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.137353746099137</v>
+        <v>4.820567735731402</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.332995186972738</v>
+        <v>0.6581585763686348</v>
       </c>
       <c r="C20">
-        <v>0.1287332337089353</v>
+        <v>0.1321585332792807</v>
       </c>
       <c r="D20">
-        <v>0.3421672784765235</v>
+        <v>0.5482230583764363</v>
       </c>
       <c r="E20">
-        <v>0.077233887937183</v>
+        <v>0.1862464146433354</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.581586866802553</v>
+        <v>1.191485888010874</v>
       </c>
       <c r="H20">
-        <v>0.458963280163843</v>
+        <v>1.170889334915131</v>
       </c>
       <c r="I20">
-        <v>0.5045238574520639</v>
+        <v>1.231396681277701</v>
       </c>
       <c r="J20">
-        <v>0.034402031458872</v>
+        <v>0.08168728078526311</v>
       </c>
       <c r="K20">
-        <v>1.181305274401581</v>
+        <v>0.412226510454218</v>
       </c>
       <c r="L20">
-        <v>0.2596803260583869</v>
+        <v>0.3968743759698441</v>
       </c>
       <c r="M20">
-        <v>0.3027884117136566</v>
+        <v>0.2346914068640373</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.140072092730804</v>
+        <v>4.811228588887133</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.50235407189075</v>
+        <v>0.7068220239926859</v>
       </c>
       <c r="C21">
-        <v>0.1342187347112045</v>
+        <v>0.1340642178042728</v>
       </c>
       <c r="D21">
-        <v>0.3667945179714991</v>
+        <v>0.5516179243412864</v>
       </c>
       <c r="E21">
-        <v>0.07866095123772254</v>
+        <v>0.1856748502296242</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5912703854611294</v>
+        <v>1.1850907208389</v>
       </c>
       <c r="H21">
-        <v>0.455768169126344</v>
+        <v>1.163363250743146</v>
       </c>
       <c r="I21">
-        <v>0.4974442002424588</v>
+        <v>1.221618127219614</v>
       </c>
       <c r="J21">
-        <v>0.03399971258602807</v>
+        <v>0.08147988627129799</v>
       </c>
       <c r="K21">
-        <v>1.329050306298456</v>
+        <v>0.4568452425437215</v>
       </c>
       <c r="L21">
-        <v>0.2813436745245355</v>
+        <v>0.4007050365328411</v>
       </c>
       <c r="M21">
-        <v>0.3393526905670683</v>
+        <v>0.2442585671846089</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.154372641588225</v>
+        <v>4.782220226742965</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.613506375448168</v>
+        <v>0.7387168339558059</v>
       </c>
       <c r="C22">
-        <v>0.1378196307724693</v>
+        <v>0.1353055640012286</v>
       </c>
       <c r="D22">
-        <v>0.383285200923936</v>
+        <v>0.5540208192215204</v>
       </c>
       <c r="E22">
-        <v>0.07967780809668668</v>
+        <v>0.1853500968523818</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5988312301019221</v>
+        <v>1.181404891894545</v>
       </c>
       <c r="H22">
-        <v>0.4543696283516709</v>
+        <v>1.158791283812732</v>
       </c>
       <c r="I22">
-        <v>0.4937377067049553</v>
+        <v>1.215649757577182</v>
       </c>
       <c r="J22">
-        <v>0.03374510670677822</v>
+        <v>0.08135023141747055</v>
       </c>
       <c r="K22">
-        <v>1.425904286396189</v>
+        <v>0.4859944798678839</v>
       </c>
       <c r="L22">
-        <v>0.2957514877165863</v>
+        <v>0.4033265454816899</v>
       </c>
       <c r="M22">
-        <v>0.3634161030327903</v>
+        <v>0.2505690238366611</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.167766593564266</v>
+        <v>4.765026082992961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.554135306080411</v>
+        <v>0.7216859415291026</v>
       </c>
       <c r="C23">
-        <v>0.1358961760888207</v>
+        <v>0.1346434207591543</v>
       </c>
       <c r="D23">
-        <v>0.3744461505329184</v>
+        <v>0.5527215469497833</v>
       </c>
       <c r="E23">
-        <v>0.07912718437857436</v>
+        <v>0.1855189686830272</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5946788381056791</v>
+        <v>1.183326927693543</v>
       </c>
       <c r="H23">
-        <v>0.4550510773629384</v>
+        <v>1.161199735348305</v>
       </c>
       <c r="I23">
-        <v>0.4956290874783917</v>
+        <v>1.218796557154626</v>
       </c>
       <c r="J23">
-        <v>0.03388023183254241</v>
+        <v>0.08141889313605155</v>
       </c>
       <c r="K23">
-        <v>1.374180982046937</v>
+        <v>0.4704382480277332</v>
       </c>
       <c r="L23">
-        <v>0.2880378816727784</v>
+        <v>0.4019166450444942</v>
       </c>
       <c r="M23">
-        <v>0.3505566611407431</v>
+        <v>0.2471957837871415</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.160234596190151</v>
+        <v>4.774041585972498</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.33023404373759</v>
+        <v>0.6573647784133243</v>
       </c>
       <c r="C24">
-        <v>0.1286438120419717</v>
+        <v>0.1321273181196077</v>
       </c>
       <c r="D24">
-        <v>0.3417711097705052</v>
+        <v>0.5481706906656427</v>
       </c>
       <c r="E24">
-        <v>0.07721193999267939</v>
+        <v>0.1862565825463705</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5814484625000489</v>
+        <v>1.19159875438379</v>
       </c>
       <c r="H24">
-        <v>0.4590267375924242</v>
+        <v>1.171018206945092</v>
       </c>
       <c r="I24">
-        <v>0.5046545399874205</v>
+        <v>1.231563644711091</v>
       </c>
       <c r="J24">
-        <v>0.03440874775891078</v>
+        <v>0.08169077027448335</v>
       </c>
       <c r="K24">
-        <v>1.178894640818754</v>
+        <v>0.4114970868469641</v>
       </c>
       <c r="L24">
-        <v>0.2593302347545574</v>
+        <v>0.396813766157365</v>
       </c>
       <c r="M24">
-        <v>0.3021933587044998</v>
+        <v>0.2345360240165135</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.139903859080363</v>
+        <v>4.811732529966434</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.090312492690714</v>
+        <v>0.5883965257912394</v>
       </c>
       <c r="C25">
-        <v>0.1208753661193427</v>
+        <v>0.1293964506539353</v>
       </c>
       <c r="D25">
-        <v>0.3080807077318184</v>
+        <v>0.544057309353164</v>
       </c>
       <c r="E25">
-        <v>0.07548784449257973</v>
+        <v>0.1872627101761424</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5720573056456004</v>
+        <v>1.202643323668184</v>
       </c>
       <c r="H25">
-        <v>0.4660969456087969</v>
+        <v>1.18310143787123</v>
       </c>
       <c r="I25">
-        <v>0.5180911654021934</v>
+        <v>1.247151475065806</v>
       </c>
       <c r="J25">
-        <v>0.03501459163665732</v>
+        <v>0.0820094593224221</v>
       </c>
       <c r="K25">
-        <v>0.9691661353321877</v>
+        <v>0.347888895218972</v>
       </c>
       <c r="L25">
-        <v>0.2293355169520055</v>
+        <v>0.3918199779426175</v>
       </c>
       <c r="M25">
-        <v>0.2506351316992941</v>
+        <v>0.2211339174355622</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.134107492188065</v>
+        <v>4.859975759769412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5379848230219011</v>
+        <v>0.9145701632112662</v>
       </c>
       <c r="C2">
-        <v>0.1273717529594833</v>
+        <v>0.1151874867806768</v>
       </c>
       <c r="D2">
-        <v>0.5417168702928024</v>
+        <v>0.2844592009381586</v>
       </c>
       <c r="E2">
-        <v>0.1881856917421061</v>
+        <v>0.0744917015925175</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.212603365162586</v>
+        <v>0.5689163012372518</v>
       </c>
       <c r="H2">
-        <v>1.193287055998134</v>
+        <v>0.4735120087384459</v>
       </c>
       <c r="I2">
-        <v>1.260195458101045</v>
+        <v>0.5309113902280487</v>
       </c>
       <c r="J2">
-        <v>0.08226617264745517</v>
+        <v>0.03549150364934661</v>
       </c>
       <c r="K2">
-        <v>0.3010386552861348</v>
+        <v>0.8151508772437239</v>
       </c>
       <c r="L2">
-        <v>0.3885854474074364</v>
+        <v>0.2079776493353265</v>
       </c>
       <c r="M2">
-        <v>0.2114875877243172</v>
+        <v>0.2130805898644219</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.90203942129591</v>
+        <v>2.142433554032735</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5040590540928918</v>
+        <v>0.7958279612256831</v>
       </c>
       <c r="C3">
-        <v>0.1259911793392021</v>
+        <v>0.1113461219666334</v>
       </c>
       <c r="D3">
-        <v>0.5405622590380972</v>
+        <v>0.2691191153576398</v>
       </c>
       <c r="E3">
-        <v>0.1889254359117807</v>
+        <v>0.07397751588879231</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.220495209251737</v>
+        <v>0.5689461150424791</v>
       </c>
       <c r="H3">
-        <v>1.200996567041564</v>
+        <v>0.4798309316173217</v>
       </c>
       <c r="I3">
-        <v>1.270015094823027</v>
+        <v>0.5413069557009571</v>
       </c>
       <c r="J3">
-        <v>0.08245401290084065</v>
+        <v>0.03583399354054118</v>
       </c>
       <c r="K3">
-        <v>0.2692841290411252</v>
+        <v>0.7108532847300069</v>
       </c>
       <c r="L3">
-        <v>0.3866711358807962</v>
+        <v>0.1939071687000293</v>
       </c>
       <c r="M3">
-        <v>0.2050904158160982</v>
+        <v>0.1878306024789147</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.934636223025649</v>
+        <v>2.155340516194585</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4833496086611433</v>
+        <v>0.7230349740679287</v>
       </c>
       <c r="C4">
-        <v>0.1251394714933625</v>
+        <v>0.1089921612295441</v>
       </c>
       <c r="D4">
-        <v>0.5400669972761278</v>
+        <v>0.2600082749070083</v>
       </c>
       <c r="E4">
-        <v>0.1894361909377675</v>
+        <v>0.07373821282499904</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.225904606723255</v>
+        <v>0.5699686027709561</v>
       </c>
       <c r="H4">
-        <v>1.206129010552296</v>
+        <v>0.4843227347789565</v>
       </c>
       <c r="I4">
-        <v>1.276528347608025</v>
+        <v>0.5484951121576138</v>
       </c>
       <c r="J4">
-        <v>0.08257621863936748</v>
+        <v>0.03605381180301404</v>
       </c>
       <c r="K4">
-        <v>0.2497874805660558</v>
+        <v>0.6468016536974659</v>
       </c>
       <c r="L4">
-        <v>0.3856334247678461</v>
+        <v>0.185451939350969</v>
       </c>
       <c r="M4">
-        <v>0.2012324949127802</v>
+        <v>0.1724101534650231</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.956671164909594</v>
+        <v>2.166665457432046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4749414845359752</v>
+        <v>0.6933919928822263</v>
       </c>
       <c r="C5">
-        <v>0.124791405242739</v>
+        <v>0.1080338221768429</v>
       </c>
       <c r="D5">
-        <v>0.5399190520322747</v>
+        <v>0.2563699991624873</v>
       </c>
       <c r="E5">
-        <v>0.1896585794683716</v>
+        <v>0.07365949443424924</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.228250839044343</v>
+        <v>0.5706292393329875</v>
       </c>
       <c r="H5">
-        <v>1.208320929851006</v>
+        <v>0.4863033589744248</v>
       </c>
       <c r="I5">
-        <v>1.279304353316842</v>
+        <v>0.5516215873609553</v>
       </c>
       <c r="J5">
-        <v>0.08262775090430186</v>
+        <v>0.03614578741149543</v>
       </c>
       <c r="K5">
-        <v>0.2418431761468156</v>
+        <v>0.6206901403109697</v>
       </c>
       <c r="L5">
-        <v>0.3852452942892768</v>
+        <v>0.1820505892398359</v>
       </c>
       <c r="M5">
-        <v>0.1996781130173986</v>
+        <v>0.1661449622032869</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.966159090750693</v>
+        <v>2.172109537004886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4735472231643882</v>
+        <v>0.6884708204296714</v>
       </c>
       <c r="C6">
-        <v>0.1247335501500899</v>
+        <v>0.1078747392174435</v>
       </c>
       <c r="D6">
-        <v>0.5398977442780506</v>
+        <v>0.255770278807276</v>
       </c>
       <c r="E6">
-        <v>0.1896963686228528</v>
+        <v>0.07364754697416487</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.228648999815384</v>
+        <v>0.5707534295339158</v>
       </c>
       <c r="H6">
-        <v>1.208690964602532</v>
+        <v>0.4866412052810318</v>
       </c>
       <c r="I6">
-        <v>1.2797726666759</v>
+        <v>0.5521525001575078</v>
       </c>
       <c r="J6">
-        <v>0.08263641256900289</v>
+        <v>0.03616120477978946</v>
       </c>
       <c r="K6">
-        <v>0.2405240911637918</v>
+        <v>0.6163535505942832</v>
       </c>
       <c r="L6">
-        <v>0.3851829476781887</v>
+        <v>0.1814884100563745</v>
       </c>
       <c r="M6">
-        <v>0.1994210859306911</v>
+        <v>0.16510570501082</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.967765280035266</v>
+        <v>2.173062860716797</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4832360867481498</v>
+        <v>0.7226351249625793</v>
       </c>
       <c r="C7">
-        <v>0.1251347813192893</v>
+        <v>0.1089792333319792</v>
       </c>
       <c r="D7">
-        <v>0.5400647836887202</v>
+        <v>0.2599589101971986</v>
       </c>
       <c r="E7">
-        <v>0.1894391324000093</v>
+        <v>0.07373707561680298</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.225935674327566</v>
+        <v>0.5699765355635762</v>
       </c>
       <c r="H7">
-        <v>1.206158164823464</v>
+        <v>0.4843488428775942</v>
       </c>
       <c r="I7">
-        <v>1.276565292476114</v>
+        <v>0.5485364850254015</v>
       </c>
       <c r="J7">
-        <v>0.08257690660070871</v>
+        <v>0.03605504250635905</v>
       </c>
       <c r="K7">
-        <v>0.2496803371833494</v>
+        <v>0.6464495537223058</v>
       </c>
       <c r="L7">
-        <v>0.3856280494578144</v>
+        <v>0.1854058911541756</v>
       </c>
       <c r="M7">
-        <v>0.2012114598870447</v>
+        <v>0.1723255856663357</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.956797062844259</v>
+        <v>2.166735554679761</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5262624818965094</v>
+        <v>0.87359881908597</v>
       </c>
       <c r="C8">
-        <v>0.1268965821663031</v>
+        <v>0.1138618608968258</v>
       </c>
       <c r="D8">
-        <v>0.5412744994476952</v>
+        <v>0.2791041605014755</v>
       </c>
       <c r="E8">
-        <v>0.1884290378475164</v>
+        <v>0.07429829663523968</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.215207517429505</v>
+        <v>0.5687129027573974</v>
       </c>
       <c r="H8">
-        <v>1.195862609583948</v>
+        <v>0.475561480958369</v>
       </c>
       <c r="I8">
-        <v>1.263480888606829</v>
+        <v>0.534325431936935</v>
       </c>
       <c r="J8">
-        <v>0.08232951667618238</v>
+        <v>0.03560761776349608</v>
       </c>
       <c r="K8">
-        <v>0.2900898552504998</v>
+        <v>0.7791874069336302</v>
       </c>
       <c r="L8">
-        <v>0.3878968892193626</v>
+        <v>0.2030866566005045</v>
       </c>
       <c r="M8">
-        <v>0.2092674132863728</v>
+        <v>0.2043558068655251</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.912859750051226</v>
+        <v>2.14616226564037</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6115722811189244</v>
+        <v>1.170959798772941</v>
       </c>
       <c r="C9">
-        <v>0.1303185558893176</v>
+        <v>0.1234862768912777</v>
       </c>
       <c r="D9">
-        <v>0.5453362859563669</v>
+        <v>0.3192355619837031</v>
       </c>
       <c r="E9">
-        <v>0.1868955730297515</v>
+        <v>0.07602482558157497</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.198639185081745</v>
+        <v>0.5746073522102506</v>
       </c>
       <c r="H9">
-        <v>1.178831333865602</v>
+        <v>0.4633603856081976</v>
       </c>
       <c r="I9">
-        <v>1.241657613628167</v>
+        <v>0.5130938757293144</v>
       </c>
       <c r="J9">
-        <v>0.08189869414786877</v>
+        <v>0.03480572862640852</v>
       </c>
       <c r="K9">
-        <v>0.3693186518311222</v>
+        <v>1.03972592562414</v>
       </c>
       <c r="L9">
-        <v>0.3934336587277301</v>
+        <v>0.2393194209848843</v>
       </c>
       <c r="M9">
-        <v>0.2256142750102157</v>
+        <v>0.2679318631917624</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.842709798170034</v>
+        <v>2.134021386224191</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6747912914209735</v>
+        <v>1.390858166408606</v>
       </c>
       <c r="C10">
-        <v>0.1328115978516564</v>
+        <v>0.1306072543641363</v>
       </c>
       <c r="D10">
-        <v>0.5493434936679336</v>
+        <v>0.3505099975801329</v>
       </c>
       <c r="E10">
-        <v>0.1860398646108745</v>
+        <v>0.07770386522823891</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.189186718437355</v>
+        <v>0.5846345160994133</v>
       </c>
       <c r="H10">
-        <v>1.168236033479559</v>
+        <v>0.4577196500459735</v>
       </c>
       <c r="I10">
-        <v>1.227955610937673</v>
+        <v>0.5019008613482256</v>
       </c>
       <c r="J10">
-        <v>0.08161498452127258</v>
+        <v>0.03426248524508235</v>
       </c>
       <c r="K10">
-        <v>0.4274980259327492</v>
+        <v>1.231808616598443</v>
       </c>
       <c r="L10">
-        <v>0.3981587904961401</v>
+        <v>0.2670404060510094</v>
       </c>
       <c r="M10">
-        <v>0.2379524026920876</v>
+        <v>0.3152665826218097</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.800905981729386</v>
+        <v>2.144088981730249</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7036633510988395</v>
+        <v>1.491354045909674</v>
       </c>
       <c r="C11">
-        <v>0.133940969903307</v>
+        <v>0.1338624064446208</v>
       </c>
       <c r="D11">
-        <v>0.5513871929172041</v>
+        <v>0.365176141308865</v>
       </c>
       <c r="E11">
-        <v>0.1857090395349132</v>
+        <v>0.07856363839677272</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.185476332183399</v>
+        <v>0.5905724707152586</v>
       </c>
       <c r="H11">
-        <v>1.163830707965559</v>
+        <v>0.4559356138354218</v>
       </c>
       <c r="I11">
-        <v>1.222227131573618</v>
+        <v>0.4978501442157395</v>
       </c>
       <c r="J11">
-        <v>0.08149298143969474</v>
+        <v>0.03402529673174293</v>
       </c>
       <c r="K11">
-        <v>0.4539546286092389</v>
+        <v>1.319460651313562</v>
       </c>
       <c r="L11">
-        <v>0.4004499271870969</v>
+        <v>0.2799257110230258</v>
       </c>
       <c r="M11">
-        <v>0.2436352440274305</v>
+        <v>0.3369740245776498</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.783997047500321</v>
+        <v>2.153214247013437</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7146121469529874</v>
+        <v>1.529488594174609</v>
       </c>
       <c r="C12">
-        <v>0.1343679323525251</v>
+        <v>0.1350977368863795</v>
       </c>
       <c r="D12">
-        <v>0.5521927029967486</v>
+        <v>0.3707973459002147</v>
       </c>
       <c r="E12">
-        <v>0.1855921373656315</v>
+        <v>0.07890360793755136</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.184156009194851</v>
+        <v>0.5930313469933708</v>
       </c>
       <c r="H12">
-        <v>1.162222007235457</v>
+        <v>0.4553778828857418</v>
       </c>
       <c r="I12">
-        <v>1.220130368884778</v>
+        <v>0.49647348366587</v>
       </c>
       <c r="J12">
-        <v>0.08144779225882814</v>
+        <v>0.03393690806127125</v>
       </c>
       <c r="K12">
-        <v>0.463971212493135</v>
+        <v>1.352702110630247</v>
       </c>
       <c r="L12">
-        <v>0.401337776725299</v>
+        <v>0.2848476470235539</v>
       </c>
       <c r="M12">
-        <v>0.2457971361312161</v>
+        <v>0.345222454270889</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.777896751526498</v>
+        <v>2.157360938713794</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7122534469266952</v>
+        <v>1.521271920029108</v>
       </c>
       <c r="C13">
-        <v>0.1342760101828446</v>
+        <v>0.1348315605948329</v>
       </c>
       <c r="D13">
-        <v>0.5520178186390723</v>
+        <v>0.369583647724383</v>
       </c>
       <c r="E13">
-        <v>0.1856169423699185</v>
+        <v>0.07882973952160555</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.184436597435464</v>
+        <v>0.5924922256465237</v>
       </c>
       <c r="H13">
-        <v>1.162565825144654</v>
+        <v>0.4554926693583639</v>
       </c>
       <c r="I13">
-        <v>1.220578721541514</v>
+        <v>0.4967628526748307</v>
       </c>
       <c r="J13">
-        <v>0.08145747967095129</v>
+        <v>0.03395588054971732</v>
       </c>
       <c r="K13">
-        <v>0.4618140584201456</v>
+        <v>1.345540592159296</v>
       </c>
       <c r="L13">
-        <v>0.4011456639678244</v>
+        <v>0.283785677380564</v>
       </c>
       <c r="M13">
-        <v>0.2453310952831274</v>
+        <v>0.3434446961088966</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.779197100123497</v>
+        <v>2.156436512348535</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7045638072153224</v>
+        <v>1.494489742225397</v>
       </c>
       <c r="C14">
-        <v>0.1339761106674331</v>
+        <v>0.1339639817735332</v>
       </c>
       <c r="D14">
-        <v>0.5514528301268626</v>
+        <v>0.3656372237937262</v>
       </c>
       <c r="E14">
-        <v>0.1856992542629357</v>
+        <v>0.07859131594126012</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.185366010864271</v>
+        <v>0.5907704756276502</v>
       </c>
       <c r="H14">
-        <v>1.163697167330128</v>
+        <v>0.4558873350267731</v>
       </c>
       <c r="I14">
-        <v>1.222053177315779</v>
+        <v>0.4977336888727777</v>
       </c>
       <c r="J14">
-        <v>0.08148924346563469</v>
+        <v>0.03401799628794766</v>
       </c>
       <c r="K14">
-        <v>0.4547787416157405</v>
+        <v>1.322194391630831</v>
       </c>
       <c r="L14">
-        <v>0.4005225660533824</v>
+        <v>0.2803297708771453</v>
       </c>
       <c r="M14">
-        <v>0.2438129062630949</v>
+        <v>0.3376520418521096</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.783489106930347</v>
+        <v>2.153541322726085</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6998556871809569</v>
+        <v>1.478095546707465</v>
       </c>
       <c r="C15">
-        <v>0.1337923207913647</v>
+        <v>0.133432925647611</v>
       </c>
       <c r="D15">
-        <v>0.5511108700094383</v>
+        <v>0.3632288415522993</v>
       </c>
       <c r="E15">
-        <v>0.1857507623518728</v>
+        <v>0.0784471670531488</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.185946334585665</v>
+        <v>0.589743621539327</v>
       </c>
       <c r="H15">
-        <v>1.164397892590145</v>
+        <v>0.4561445921708867</v>
       </c>
       <c r="I15">
-        <v>1.222965761862319</v>
+        <v>0.4983490660318175</v>
       </c>
       <c r="J15">
-        <v>0.08150883121180019</v>
+        <v>0.03405623016090153</v>
       </c>
       <c r="K15">
-        <v>0.4504691344413345</v>
+        <v>1.307900939762817</v>
       </c>
       <c r="L15">
-        <v>0.4001435335298282</v>
+        <v>0.2782185627152529</v>
       </c>
       <c r="M15">
-        <v>0.242884259044331</v>
+        <v>0.3341076563984728</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.786157501602077</v>
+        <v>2.151859097958749</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6729066537130279</v>
+        <v>1.384300878502813</v>
       </c>
       <c r="C16">
-        <v>0.1327376933584503</v>
+        <v>0.1303948740361278</v>
       </c>
       <c r="D16">
-        <v>0.5492143637649605</v>
+        <v>0.3495607302724153</v>
       </c>
       <c r="E16">
-        <v>0.1860626582545173</v>
+        <v>0.07764965798110524</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.189441059606651</v>
+        <v>0.5842751951361294</v>
       </c>
       <c r="H16">
-        <v>1.168532263978136</v>
+        <v>0.4578524299024167</v>
       </c>
       <c r="I16">
-        <v>1.228340128389842</v>
+        <v>0.5021871691584536</v>
       </c>
       <c r="J16">
-        <v>0.08162309937380563</v>
+        <v>0.03427818605485111</v>
       </c>
       <c r="K16">
-        <v>0.4257687830954353</v>
+        <v>1.2260867029552</v>
       </c>
       <c r="L16">
-        <v>0.3980118991470505</v>
+        <v>0.2662041064836274</v>
       </c>
       <c r="M16">
-        <v>0.2375824133323974</v>
+        <v>0.3138517314168325</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.802053405103663</v>
+        <v>2.143587244384776</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6564028190375097</v>
+        <v>1.326888004024056</v>
       </c>
       <c r="C17">
-        <v>0.1320894842526528</v>
+        <v>0.1285354485766348</v>
       </c>
       <c r="D17">
-        <v>0.5481073675228885</v>
+        <v>0.3412912603377976</v>
       </c>
       <c r="E17">
-        <v>0.1862689433139604</v>
+        <v>0.0771854023241989</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.191735923649944</v>
+        <v>0.5812816101686025</v>
       </c>
       <c r="H17">
-        <v>1.171174660591333</v>
+        <v>0.4591041477251565</v>
       </c>
       <c r="I17">
-        <v>1.231766321146441</v>
+        <v>0.504813589403895</v>
       </c>
       <c r="J17">
-        <v>0.08169500389373674</v>
+        <v>0.03441689393413316</v>
       </c>
       <c r="K17">
-        <v>0.4106130653776177</v>
+        <v>1.175973274630621</v>
       </c>
       <c r="L17">
-        <v>0.3967404027754355</v>
+        <v>0.2589061224478826</v>
       </c>
       <c r="M17">
-        <v>0.2343477553383622</v>
+        <v>0.3014723030830311</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.81234464178317</v>
+        <v>2.13970289476805</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6469209688448245</v>
+        <v>1.293908428232783</v>
       </c>
       <c r="C18">
-        <v>0.1317162083484149</v>
+        <v>0.1274674157020641</v>
       </c>
       <c r="D18">
-        <v>0.547491444030868</v>
+        <v>0.3365759519309677</v>
       </c>
       <c r="E18">
-        <v>0.1863930955326722</v>
+        <v>0.07692737042355624</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.193111367324619</v>
+        <v>0.5796885622304586</v>
       </c>
       <c r="H18">
-        <v>1.172733521182479</v>
+        <v>0.4598973617843569</v>
       </c>
       <c r="I18">
-        <v>1.23378447938666</v>
+        <v>0.5064217453978799</v>
       </c>
       <c r="J18">
-        <v>0.08173702603749256</v>
+        <v>0.03449761015315644</v>
       </c>
       <c r="K18">
-        <v>0.4018950398708512</v>
+        <v>1.147174359022671</v>
       </c>
       <c r="L18">
-        <v>0.3960224118815603</v>
+        <v>0.2547341968893306</v>
       </c>
       <c r="M18">
-        <v>0.2324938798145624</v>
+        <v>0.2943682186290175</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.818462309074732</v>
+        <v>2.137894178543689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6437124407247836</v>
+        <v>1.282749097099639</v>
       </c>
       <c r="C19">
-        <v>0.1315897482440676</v>
+        <v>0.1271060369650598</v>
       </c>
       <c r="D19">
-        <v>0.5472864783000375</v>
+        <v>0.334986357125203</v>
       </c>
       <c r="E19">
-        <v>0.1864360773058653</v>
+        <v>0.07684153280186301</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.193586602748965</v>
+        <v>0.5791709381587822</v>
       </c>
       <c r="H19">
-        <v>1.173268030309515</v>
+        <v>0.4601783537502797</v>
       </c>
       <c r="I19">
-        <v>1.234475954095956</v>
+        <v>0.5069827637877893</v>
       </c>
       <c r="J19">
-        <v>0.08175136828058882</v>
+        <v>0.03452509987018182</v>
       </c>
       <c r="K19">
-        <v>0.3989431370471266</v>
+        <v>1.137427532329326</v>
       </c>
       <c r="L19">
-        <v>0.3957816074533724</v>
+        <v>0.2533259765046409</v>
       </c>
       <c r="M19">
-        <v>0.2318673304807533</v>
+        <v>0.2919655926856137</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.820567735731402</v>
+        <v>2.137353746099194</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6581585763686348</v>
+        <v>1.332995186972653</v>
       </c>
       <c r="C20">
-        <v>0.1321585332792807</v>
+        <v>0.1287332337089424</v>
       </c>
       <c r="D20">
-        <v>0.5482230583764363</v>
+        <v>0.3421672784767651</v>
       </c>
       <c r="E20">
-        <v>0.1862464146433354</v>
+        <v>0.07723388793718478</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.191485888010874</v>
+        <v>0.5815868668025388</v>
       </c>
       <c r="H20">
-        <v>1.170889334915131</v>
+        <v>0.458963280163843</v>
       </c>
       <c r="I20">
-        <v>1.231396681277701</v>
+        <v>0.5045238574520852</v>
       </c>
       <c r="J20">
-        <v>0.08168728078526311</v>
+        <v>0.03440203145887644</v>
       </c>
       <c r="K20">
-        <v>0.412226510454218</v>
+        <v>1.181305274401581</v>
       </c>
       <c r="L20">
-        <v>0.3968743759698441</v>
+        <v>0.2596803260583584</v>
       </c>
       <c r="M20">
-        <v>0.2346914068640373</v>
+        <v>0.3027884117136566</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.811228588887133</v>
+        <v>2.140072092730776</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7068220239926859</v>
+        <v>1.502354071891006</v>
       </c>
       <c r="C21">
-        <v>0.1340642178042728</v>
+        <v>0.1342187347116734</v>
       </c>
       <c r="D21">
-        <v>0.5516179243412864</v>
+        <v>0.3667945179713996</v>
       </c>
       <c r="E21">
-        <v>0.1856748502296242</v>
+        <v>0.07866095123770478</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.1850907208389</v>
+        <v>0.591270385461101</v>
       </c>
       <c r="H21">
-        <v>1.163363250743146</v>
+        <v>0.455768169126344</v>
       </c>
       <c r="I21">
-        <v>1.221618127219614</v>
+        <v>0.4974442002424446</v>
       </c>
       <c r="J21">
-        <v>0.08147988627129799</v>
+        <v>0.03399971258605028</v>
       </c>
       <c r="K21">
-        <v>0.4568452425437215</v>
+        <v>1.329050306298427</v>
       </c>
       <c r="L21">
-        <v>0.4007050365328411</v>
+        <v>0.2813436745245355</v>
       </c>
       <c r="M21">
-        <v>0.2442585671846089</v>
+        <v>0.3393526905670612</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.782220226742965</v>
+        <v>2.154372641588225</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7387168339558059</v>
+        <v>1.613506375447912</v>
       </c>
       <c r="C22">
-        <v>0.1353055640012286</v>
+        <v>0.1378196307724693</v>
       </c>
       <c r="D22">
-        <v>0.5540208192215204</v>
+        <v>0.3832852009238223</v>
       </c>
       <c r="E22">
-        <v>0.1853500968523818</v>
+        <v>0.07967780809668312</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.181404891894545</v>
+        <v>0.5988312301019363</v>
       </c>
       <c r="H22">
-        <v>1.158791283812732</v>
+        <v>0.4543696283516709</v>
       </c>
       <c r="I22">
-        <v>1.215649757577182</v>
+        <v>0.4937377067049624</v>
       </c>
       <c r="J22">
-        <v>0.08135023141747055</v>
+        <v>0.03374510670684749</v>
       </c>
       <c r="K22">
-        <v>0.4859944798678839</v>
+        <v>1.425904286396303</v>
       </c>
       <c r="L22">
-        <v>0.4033265454816899</v>
+        <v>0.2957514877166574</v>
       </c>
       <c r="M22">
-        <v>0.2505690238366611</v>
+        <v>0.363416103032776</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.765026082992961</v>
+        <v>2.167766593564266</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7216859415291026</v>
+        <v>1.554135306080155</v>
       </c>
       <c r="C23">
-        <v>0.1346434207591543</v>
+        <v>0.135896176088572</v>
       </c>
       <c r="D23">
-        <v>0.5527215469497833</v>
+        <v>0.3744461505329895</v>
       </c>
       <c r="E23">
-        <v>0.1855189686830272</v>
+        <v>0.07912718437855659</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.183326927693543</v>
+        <v>0.5946788381056791</v>
       </c>
       <c r="H23">
-        <v>1.161199735348305</v>
+        <v>0.4550510773629242</v>
       </c>
       <c r="I23">
-        <v>1.218796557154626</v>
+        <v>0.4956290874783775</v>
       </c>
       <c r="J23">
-        <v>0.08141889313605155</v>
+        <v>0.03388023183258682</v>
       </c>
       <c r="K23">
-        <v>0.4704382480277332</v>
+        <v>1.374180982046909</v>
       </c>
       <c r="L23">
-        <v>0.4019166450444942</v>
+        <v>0.2880378816728211</v>
       </c>
       <c r="M23">
-        <v>0.2471957837871415</v>
+        <v>0.3505566611407218</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.774041585972498</v>
+        <v>2.160234596190094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6573647784133243</v>
+        <v>1.33023404373759</v>
       </c>
       <c r="C24">
-        <v>0.1321273181196077</v>
+        <v>0.1286438120420428</v>
       </c>
       <c r="D24">
-        <v>0.5481706906656427</v>
+        <v>0.3417711097703773</v>
       </c>
       <c r="E24">
-        <v>0.1862565825463705</v>
+        <v>0.07721193999267228</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.19159875438379</v>
+        <v>0.5814484625000347</v>
       </c>
       <c r="H24">
-        <v>1.171018206945092</v>
+        <v>0.4590267375923105</v>
       </c>
       <c r="I24">
-        <v>1.231563644711091</v>
+        <v>0.5046545399874134</v>
       </c>
       <c r="J24">
-        <v>0.08169077027448335</v>
+        <v>0.03440874775886993</v>
       </c>
       <c r="K24">
-        <v>0.4114970868469641</v>
+        <v>1.178894640818669</v>
       </c>
       <c r="L24">
-        <v>0.396813766157365</v>
+        <v>0.2593302347545432</v>
       </c>
       <c r="M24">
-        <v>0.2345360240165135</v>
+        <v>0.3021933587044998</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.811732529966434</v>
+        <v>2.139903859080391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5883965257912394</v>
+        <v>1.090312492690686</v>
       </c>
       <c r="C25">
-        <v>0.1293964506539353</v>
+        <v>0.1208753661191864</v>
       </c>
       <c r="D25">
-        <v>0.544057309353164</v>
+        <v>0.3080807077317615</v>
       </c>
       <c r="E25">
-        <v>0.1872627101761424</v>
+        <v>0.07548784449256551</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.202643323668184</v>
+        <v>0.5720573056455578</v>
       </c>
       <c r="H25">
-        <v>1.18310143787123</v>
+        <v>0.4660969456087969</v>
       </c>
       <c r="I25">
-        <v>1.247151475065806</v>
+        <v>0.5180911654021898</v>
       </c>
       <c r="J25">
-        <v>0.0820094593224221</v>
+        <v>0.0350145916366067</v>
       </c>
       <c r="K25">
-        <v>0.347888895218972</v>
+        <v>0.9691661353320171</v>
       </c>
       <c r="L25">
-        <v>0.3918199779426175</v>
+        <v>0.2293355169519486</v>
       </c>
       <c r="M25">
-        <v>0.2211339174355622</v>
+        <v>0.250635131699287</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.859975759769412</v>
+        <v>2.134107492188093</v>
       </c>
     </row>
   </sheetData>
